--- a/frontend-career-counselling/interview experince/Ramzan-interview-prepation-2024.xlsx
+++ b/frontend-career-counselling/interview experince/Ramzan-interview-prepation-2024.xlsx
@@ -20,7 +20,8 @@
     <sheet name="API" sheetId="2" r:id="rId6"/>
     <sheet name="Angular 12" sheetId="3" r:id="rId7"/>
     <sheet name="Javascript" sheetId="4" r:id="rId8"/>
-    <sheet name="ES6" sheetId="11" r:id="rId9"/>
+    <sheet name="Angular " sheetId="13" r:id="rId9"/>
+    <sheet name="ES6" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="638">
   <si>
     <r>
       <t>1. Text</t>
@@ -6342,6 +6343,393 @@
       </rPr>
       <t>Dynamic sql output parameter</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/sudheerj/angular-interview-questions</t>
+  </si>
+  <si>
+    <t>https://github.com/Yonet/Angular-Interview-Questions?tab=readme-ov-file#forms-questions</t>
+  </si>
+  <si>
+    <t>https://github.com/khan4019/angular-interview-questions?tab=readme-ov-file#performance-and-edge-case-related-terminology</t>
+  </si>
+  <si>
+    <t>https://github.com/WebPredict/angular-2-interview-questions</t>
+  </si>
+  <si>
+    <t>https://dotnettutorials.net/lesson/web-api-experienced-interview-questions/</t>
+  </si>
+  <si>
+    <t>Interview Questions Answers</t>
+  </si>
+  <si>
+    <t>Google Drive - Interview - Angular PDF books</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>What is RxJs and why do we need it ?</t>
+  </si>
+  <si>
+    <t>What are observables and observers?</t>
+  </si>
+  <si>
+    <t>What is stream in RxJs?</t>
+  </si>
+  <si>
+    <t>What is the use of subscribe in RxJs?</t>
+  </si>
+  <si>
+    <t>How to unsubscribe from the stream?</t>
+  </si>
+  <si>
+    <t>What are operators in RxJs?</t>
+  </si>
+  <si>
+    <t>Where did you use RxJs in Angular?</t>
+  </si>
+  <si>
+    <t>Differentiate between RxJs and Promises?</t>
+  </si>
+  <si>
+    <t>How to install rxJs?</t>
+  </si>
+  <si>
+    <t>Why is rxjs called Push/Reactive not pull/imperative?</t>
+  </si>
+  <si>
+    <t>Name some rxJs Operators?</t>
+  </si>
+  <si>
+    <t>RxJs stands for Reactive extensions for JavaScript. RxJs helps to handle asynchronous data stream with ease.
+RxJs stands for Reactive extensions for JavaScript. RxJs helps to handle asynchronous data stream with ease. Assume you have an entity which is streaming async data, now this entity which is streaming async data can be a HTTP response , Port which is streaming data , Timer emitting data and so on. This Async stream is coming in undecided intervals like stream of data. As a developer you would like to listen to this stream , run some logic on these stream and so on.RxJs makes this task easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it comes to Angular interviews one of the most asked questions is around Rxjs. RxJs even though very simple when it comes to expressing answers and explanation it has its own challenges. This article will cover 10 important questions around rxJs which will help you fly in your Angular interviews. Happy learning and Happy job hunting.
+You can also go through my Rxjs interview questions with answers video which run through 11 important Rxjs interviews.
+</t>
+  </si>
+  <si>
+    <t>What are observables and observers? RxJs library helps to handle async data stream easily. But in order to access the async stream it has to be exposed as a rxJs Observable object. The listener who is interested in accessing the Observable stream is exposed as an observer.
+In simple word observable represents async stream of data and observer subscribes to the observable to receive the stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream in RxJs is asynchronous data emitted from observables.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Subscribe" function starts the stream from observable to the observer function. You can see in the below code how the subscribe function takes a function as reference. So when data is streamed from Observable its received by the Listener function.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var observ = Observable.create(AsyncStream);
+observ.subscribe(res=&gt;Listener(res));
+function Listener(res)
+    console.log(res);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We need to get reference of the "subscription" object. This subscription object is returned when we call the "subscribe" function. To unsubscribe we can call "unsubscribe" on the "sunscription" object.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var subscription = observ.subscribe(res=&gt;Listener(res));
+subscription.unsubscribe();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Operators are logics which manipulate an observable stream and create new observable streams.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Most of the times rxJs is used in http calls with angular. As http streams asynchronous data we can subscribe , apply filters to the http streams.
+Below is a simple sample code of how RxJs can be used with HTTP calls.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var  stream1 = httpc.get("https://www.myapi.com/somedata");
+ var stream2 = stream1.pipe(filter(x=&gt;x&gt;3));
+ stream2.subscribe(res=&gt;this.Success(res),res=&gt;this.Error(res));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RxJs                                                                         Promise
+Observable return stream of data.                   Promise return single value.
+You can subscribe and unsubscribe stream.   You cannot cancel a promise.</t>
+  </si>
+  <si>
+    <t>Map :- Transforms data in a observable in to a different format.
+Filter :- Allows data which meets conditions.
+Merge :- This operator will combine multiple Observables into one. So if one of the observables emit a value the combined one will emit as well.
+Concat :- only when observable completes, it will start with the next observable.
+From :- This operator will turn array, promise or iterable into an observable.
+debouncetime :- discard emitted values if a certain time didn't pass between the last input
+distinctuntilchanged :- only emits a value if it is different than the last one.
+pluck :- select a property to emit.
+delay :- emits a value with a delay.</t>
+  </si>
+  <si>
+    <t>perative programming means listener code is responsible to pull stream of data. Reactive
+ programming means you register a callback and the stream is responsible to push data.
+ Some devs also visualize it as publisher and subscriber model as well.</t>
+  </si>
+  <si>
+    <t>npm install rxjs</t>
+  </si>
+  <si>
+    <t>RxJS</t>
+  </si>
+  <si>
+    <t>1.What is the whole goal of Angular ?</t>
+  </si>
+  <si>
+    <t>Note :- Now lot of candidates answer this question by saying it's for SPA , or some say its a Javascript UI framework and so on. I would suggest to answer in a more detailed way and in a more holistic way so that you send a message to the interviewer that you really know angular and you are the right candidate.
+Angular is a JavaScript Binding framework which binds the HTML UI and Javascript Model. This helps you to reduce your effort on writing those lengthy lines of code for binding.
+Adding to it,it also helps you to build SPA by using the concept of routing.It also has lot of other features like HTTP , DI , Input output because of which you do not need other frameworks.
+So when you are answering question please answer in a more detailed way and not just one liners.</t>
+  </si>
+  <si>
+    <t>SPA stands for Single page application. Single page application are applications where the main UI gets loaded once and then the needed UI or data is loaded rather than making a full post back.
+For example, in a typical website we have master pages some even term them as template.
+So, a typical master page has left menu, footer, top banner and so on. So, the master page gets loaded once and then on demand, depending on which link the user clicks other pages are loaded, the main master page is not loaded again and again.
+In Angular it is implemented by using lazy routing concept.
+SPA or single page application are those applications where the main page is loaded once and the other pages get loaded on demand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is SPA and how to implement in Angular ?
+</t>
+  </si>
+  <si>
+    <t>13.How to implement lazy loading in Angular?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to implement lazy loading we need to do three steps: -
+The first thing is dividing your project in to modules.
+Create separate routing files for each module and use "loadChildren" and specify which modules to be loaded on demand.
+In routing navigation use "forRoot" to load the routes of the main module and "forChild" to load the child modules.
+</t>
+  </si>
+  <si>
+    <t>16.What is the importance of node_modules folder ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"node_modules" is the folder where all the packages are installed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.What is package.json ?
+</t>
+  </si>
+  <si>
+    <t>It has all the Javascript references needed for a project. So rather than installing one package at a time we can install all packages in one go.
+What is the importance of ^ and in package.json?
+&lt;^=&gt;&gt; Latest Minor version+ revision
+==&gt; Latest revision
+What is package.lock ?
+It has the exact version which is installed after analysis of package.json
+Explain the Flow of Angular ?
+Index → Main → Module → Coponent ==&gt; HTML
+pushed the HTML in the selector of Index
+What is the use of templateURL ?
+TemplateURL connect the component with the UI</t>
+  </si>
+  <si>
+    <t>What are services in Angular ?</t>
+  </si>
+  <si>
+    <t>Services helps you to share common logic across Angular projects.
+Dependency Injection is an application design pattern where rather than creating object instances from within the component , Angular injects it via the constructor.
+By using the "@NgModule" provider meta-data we can specify which instance to be injected
+Dependency injection helps to decouple class dependencies , so that when you add new dependencies you do not have change everywhere.
+"ng serve" builds inmemory while "ng build" builds on the hard disk. So when you want to go for production "ng build" command is used.
+Ng build -prod flag compresses your JS file , removes comments , creates GUIDs of your JS files and make your application ready for production.</t>
+  </si>
+  <si>
+    <t>In What scenarios will we use content projection ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Projection is used when we want to project contents like HTML or Components from parent component to child component. These contents get projected in to a reserved tag by name "ng-content".
+</t>
+  </si>
+  <si>
+    <t>Explain Content Projection Slots in Angular?</t>
+  </si>
+  <si>
+    <t>Content projection slot helps to project specific content to specific "" tag section..So if we have two "ng-content" sections in the contained component and from the parent component we want to project specific content to specific "ng-content" tags then we need to define Content projection slots.
+Defining content projection slot is a two-step process: -
+In the contained component we will use the "select" attribute to define the slot name in "ng-content" tag.
+Then in the parent component we will provide the slot name to project in the respective "ng-content" tags. Below is a pictorial representation of the same.</t>
+  </si>
+  <si>
+    <t>Why do we need "ViewChild" and "ViewChildren" in Angular?</t>
+  </si>
+  <si>
+    <t>Angular have two parts one is the view and the other is component or the code which handles the view data and events. Now in the component many times we would like to refer instance of view elements , that's where "ViewChild" helps.
+"ViewChild" helps to reference view objects in the component to which it is connected."ViewChild" references one object while "ViewChildren" references collection.</t>
+  </si>
+  <si>
+    <t>What's Template reference variable?</t>
+  </si>
+  <si>
+    <t>A template reference variable is used to give reference to a DOM Element, a component, directive, or a web component within a template. This variable can then be used anywhere inside the template or inside the component to reference the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Explain "ContentChild" and "ContentChildren" ?
+</t>
+  </si>
+  <si>
+    <t>"ContentChild" and "ContentChildren" helps to access projected contents from the parent component.
+"ContentChild" references a single projected content while "ContentChildren" references collection.</t>
+  </si>
+  <si>
+    <t>.Differentiate between ViewChild , ViewChildren , ContentChild and ContentChildren ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ViewChild" and "ViewChildren" helps to reference view elements which belongs to HIS OWN VIEWS.
+"ContentChild" and "ContentChildren" helps to access view elements which is PROJECTED BY THE PARENT.
+</t>
+  </si>
+  <si>
+    <t>What's the importance Angular component hooks / life cycle?</t>
+  </si>
+  <si>
+    <t>Component life cycle a.k.a angular component hooks are events which developers can tap in and write custom logic in the same. For instance if you want to write initialization code when the component starts first time then we can tap in to the "ngOninit()" function . If you want to write clean up code when the component is unloading then we have the "ngDestroy()" function .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The complete Angular life cycle events are divided in to two parts: -
+Sequence of events which occurs when the component is loaded first time.
+Second sequence of events which fires on every change detection which occurs on the component.
+The top image shows the first-time sequence in RED color and change detection sequence in BLACK color.
+Below is the First time Sequence of events which fires when the component is loaded first time.
+Constructor: - This is not really an event of angular it's an event of typescript class. When you create a object of a typescript class constructor fires first. And this will fire irrespective we have angular or not. But still it does have lot of significance as it comes as the first event before any angular component event fires.
+ngOnChanges: Called when data bound input property changes. This event is called before ngOnInit().
+ngOnInit: Called when first time the data-bound properties are displayed and here we set the @input property values.
+ngDoCheck: Called whenever angular change detection runs.
+gAfterContentInit: Called after Angular projects external content first into the component's view.
+ngAfterContentChecked: After Angular checks the content projected into the component. This is the change detection check for the contents projected.
+ngAfterViewInit: After Angular initializes the component's views , child views and projected content this event fires.
+ngAfterViewChecked: Once the default change detection run and content projected change detection run this event fires.
+Once the component is initialized in every change detection below is how the events will fire. Ifthere are no changed to input "npOnChanges" event will fire.
+ngOnChanges.
+ngDoCheck.
+ngAfterContentChecked.
+ngAfterViewChecked
+Finally when the component is unloaded Destroy event fires.
+ngOnDestroy: This is the clean-up phase just before Angular destroys the directive/component.
+While answering this question many candidates try to mug up or byheart the answer which can make the interview suspicious. So rather than by hearting if you can understand the overall sequence of how events fire you will not forget the same.
+If you see a typical view of Angular it has two parts one is its own HTML/ Content view and the other is the projected HTML / Content inside ng-content. Now whenever events fire they first fire on the components projected contents and then they fire on the components view.
+Also there is one event which fires before them which is like a kick start event to say that both the events should start processing.
+So, there are basically three event sequence: -
+Kick start event :- ngOnInit , ngDoCheck
+After that events fire during content projection ngAfterContentInit , ngAfterContentChecked
+And then on the final view components ngAfterViewInit ,ngAfterViewChecked
+</t>
+  </si>
+  <si>
+    <t>.Explain in detail Angular life cycle hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiate between "constructor" and "ngOnInit()" ?
+</t>
+  </si>
+  <si>
+    <t>How to implement HTTP in Angular ?</t>
+  </si>
+  <si>
+    <t>Import "HttpClientModule" at Module level.
+Import "HttpClient" from "@angular/common/http" at component level.
+Create object of "HttpClient" using Dependency injection.
+Using subscribe function to catch success and error response.</t>
+  </si>
+  <si>
+    <t>How to pass data between components?</t>
+  </si>
+  <si>
+    <t>This question is a very common question and there are many ways of passing data between components. Depending on scenarios each one of these methods / ways should be used. So when you answer this question in the interview must be you can also emphasize best practices.
+These are the kind of questions where in you get an opportunity to prove that not only you know angular but you also know the best practices when to use what.</t>
+  </si>
+  <si>
+    <t>Can you give some examples of inbuilt Angular pipes ?</t>
+  </si>
+  <si>
+    <t>AsyncPipe :-Used to read the object from an asynchronous source
+CurrencyPipe:-Used to format the currencies
+DatePipe:-Used to format the dates
+DecimalPipe:- Used to transform the decimal numbers
+I18nPluralPipe:- Converts value to string that pluralizes value according to locale.
+I18nSelectPipe:- Used to display values according to the selection criteria
+JsonPipe:- Converts an object into a JSON string
+KeyValuePipe:- Converts an Object or Map into an array of key value pairs.
+LowerCasePipe:- Converts a string or text to lowercase
+PercentPipe:-Used to display percentage numbers
+SlicePipe:-Used to slice an array
+TitleCasePipe:-Converts a string or text to title case
+UpperCasePipe:-Converts a string or text to uppercase</t>
+  </si>
+  <si>
+    <t>What are interceptors in Angular?</t>
+  </si>
+  <si>
+    <t>Interceptors help to execute pre-processing logic before any HTTP call is made from angular application. So, for example you when any HTTP call is made any application you want to log it, you can create an interceptor and write logging logic in the same.</t>
+  </si>
+  <si>
+    <t>How to implement interceptors?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing interceptor is a two-step process: -
+Step 1 :- First create the class which has the pre-processing logic and this class should implement "HttpInterceptor" interface. In the "intercept" method we need to write pre-processing logic which will fire before HTTP call is executed.
+Step 2 :- Dependency inject the pre-processing class at module level using providers as shown in the below code.
+</t>
+  </si>
+  <si>
+    <t>Give some use of Interceptors?</t>
+  </si>
+  <si>
+    <t>Below are some uses of interceptors: -
+Authentication: - In every call you would want to attach JWT token. This can be done by attaching token in the headers before call is made.
+Logging: - Would like to log / audit calls before every HTTP call is made.
+Caching: - Take data from cache rather than going to server. So before HTTP call is executed you can look up in the local cache, get data and cancel expensive HTTP call to server.
+Fake backend: - If you want to fake HTTP for unit testing.
+Modifying headers: - Before executing any HTTP call you would like to</t>
+  </si>
+  <si>
+    <t>Can we provide multi-interceptors?</t>
+  </si>
+  <si>
+    <t>Yes,you can fire multiple interceptor in pre-processing by defining multiple interceptors in the providers and by specifying "multi" value to "true".
+As per the sequence provided in the providers interceptor will fire in that sequence.</t>
   </si>
 </sst>
 </file>
@@ -6638,7 +7026,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6661,34 +7049,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6759,9 +7120,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6812,9 +7170,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6833,12 +7188,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6847,6 +7196,59 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7012,6 +7414,657 @@
         <a:xfrm>
           <a:off x="32493585" y="2550796"/>
           <a:ext cx="4781550" cy="2009774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>205741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3642360</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1325881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311640" y="2400301"/>
+          <a:ext cx="3451860" cy="1120140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5144038</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>906780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212580" y="3985260"/>
+          <a:ext cx="5052598" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4084696</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1013460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9433560" y="8397239"/>
+          <a:ext cx="3772276" cy="845821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403861</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5638801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525001" y="6088380"/>
+          <a:ext cx="5234940" cy="2049780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2308860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5669571</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1211580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="14851380"/>
+          <a:ext cx="3360711" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5966883</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10203180" y="15994380"/>
+          <a:ext cx="4884843" cy="1821180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6797547</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>990601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10233660" y="17983201"/>
+          <a:ext cx="5852667" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1783080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7369024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>845820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11071860" y="19613880"/>
+          <a:ext cx="5585944" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5852667</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1226821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10721340" y="20482561"/>
+          <a:ext cx="5852667" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4175760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="22981920"/>
+          <a:ext cx="3848100" cy="3688080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4716780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8573143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3566422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15438120" y="23401020"/>
+          <a:ext cx="3856363" cy="3025402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4351021</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3520738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554981" y="28148280"/>
+          <a:ext cx="4191000" cy="3436918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4716780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2293620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="510540" y="28392120"/>
+          <a:ext cx="4663440" cy="1965960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3177835</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1120140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="32567879"/>
+          <a:ext cx="3078775" cy="998221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7094835</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1043940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10721340" y="38846760"/>
+          <a:ext cx="7094835" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>708660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620629</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1341175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11079480" y="39555420"/>
+          <a:ext cx="7262489" cy="632515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7155798</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>678180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="42915840"/>
+          <a:ext cx="7132938" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7288,39 +8341,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76" style="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76" style="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="124.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="133" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="79" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="75"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7329,7 +8382,7 @@
       <c r="B4" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -7338,7 +8391,7 @@
       <c r="B5" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7347,7 +8400,7 @@
       <c r="B6" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="64"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7356,7 +8409,7 @@
       <c r="B7" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7365,7 +8418,7 @@
       <c r="B8" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -7374,7 +8427,7 @@
       <c r="B9" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="64" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7385,7 +8438,7 @@
       <c r="B10" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="64">
         <v>41</v>
       </c>
     </row>
@@ -7396,7 +8449,7 @@
       <c r="B11" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -7405,7 +8458,7 @@
       <c r="B12" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -7414,7 +8467,7 @@
       <c r="B13" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="64">
         <v>41</v>
       </c>
     </row>
@@ -7425,7 +8478,7 @@
       <c r="B14" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="64"/>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -7434,7 +8487,7 @@
       <c r="B15" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -7443,7 +8496,7 @@
       <c r="B16" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -7452,7 +8505,7 @@
       <c r="B17" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -7461,7 +8514,7 @@
       <c r="B18" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -7470,7 +8523,7 @@
       <c r="B19" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="75"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -7479,7 +8532,7 @@
       <c r="B20" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="64"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -7488,7 +8541,7 @@
       <c r="B21" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C21" s="75"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -7497,21 +8550,21 @@
       <c r="B22" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="75"/>
+      <c r="C23" s="64"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="75"/>
+      <c r="C24" s="64"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -7520,7 +8573,7 @@
       <c r="B25" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="75"/>
+      <c r="C25" s="64"/>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -7529,7 +8582,7 @@
       <c r="B26" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C26" s="75"/>
+      <c r="C26" s="64"/>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -7538,28 +8591,28 @@
       <c r="B27" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="75"/>
+      <c r="C28" s="64"/>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="75"/>
+      <c r="C29" s="64"/>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="75"/>
+      <c r="C30" s="64"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -7568,7 +8621,7 @@
       <c r="B31" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="66" t="s">
         <v>469</v>
       </c>
     </row>
@@ -7587,7 +8640,7 @@
       <c r="B33" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="64"/>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
@@ -7662,7 +8715,7 @@
         <v>486</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="72" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7681,7 +8734,7 @@
       <c r="B47" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="66" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7698,7 +8751,7 @@
       <c r="B49" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="66" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7709,7 +8762,7 @@
       <c r="B50" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="66" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7728,7 +8781,7 @@
       <c r="B52" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="66" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7739,7 +8792,7 @@
       <c r="B53" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="66" t="s">
         <v>506</v>
       </c>
     </row>
@@ -7756,7 +8809,7 @@
       <c r="B55" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="66" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7767,7 +8820,7 @@
       <c r="B56" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C56" s="77" t="s">
+      <c r="C56" s="66" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7778,7 +8831,7 @@
       <c r="B57" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="66" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7797,7 +8850,7 @@
       <c r="B59" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="66" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8147,7 +9200,7 @@
       </c>
     </row>
     <row r="119" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="84" t="s">
+      <c r="A119" s="71" t="s">
         <v>551</v>
       </c>
     </row>
@@ -8182,7 +9235,7 @@
       </c>
     </row>
     <row r="126" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="71" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8232,9 +9285,9 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="82"/>
-      <c r="B136" s="83"/>
-      <c r="C136" s="83"/>
+      <c r="A136" s="69"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8259,12 +9312,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8277,24 +9347,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="80" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -8477,1588 +9547,1588 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="128" style="1" customWidth="1"/>
     <col min="4" max="4" width="118.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="17"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="21" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="21" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="A22" s="20">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="20">
         <v>20</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="20">
         <v>21</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="A25" s="20">
         <v>22</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="20">
         <v>23</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
+      <c r="A27" s="20">
         <v>24</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
+      <c r="A28" s="20">
         <v>25</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+      <c r="A29" s="20">
         <v>26</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
+      <c r="A30" s="20">
         <v>27</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
+      <c r="A31" s="20">
         <v>28</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29">
+      <c r="A32" s="20">
         <v>29</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
+      <c r="A33" s="20">
         <v>30</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
+      <c r="A34" s="20">
         <v>31</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="A35" s="20">
         <v>32</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
+      <c r="A36" s="20">
         <v>33</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
+      <c r="A37" s="20">
         <v>34</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+      <c r="A38" s="20">
         <v>35</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
+      <c r="A39" s="20">
         <v>36</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29">
+      <c r="A40" s="20">
         <v>37</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="21" t="s">
         <v>145</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
+      <c r="A41" s="20">
         <v>38</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="5" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A42" s="29">
+      <c r="A42" s="20">
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
+      <c r="A43" s="20">
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="23" t="s">
         <v>150</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="1"/>
-      <c r="D68" s="21"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
-      <c r="B75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
-      <c r="B79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="24"/>
-      <c r="B92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="24"/>
-      <c r="B93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
-      <c r="B94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="24"/>
-      <c r="B95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="24"/>
-      <c r="B96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
-      <c r="B97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="24"/>
-      <c r="B98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="24"/>
-      <c r="B99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="24"/>
-      <c r="B102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="24"/>
-      <c r="B103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="24"/>
-      <c r="B104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="24"/>
-      <c r="B105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
-      <c r="B106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
-      <c r="B107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="24"/>
-      <c r="B108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
-      <c r="B109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="24"/>
-      <c r="B110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="24"/>
-      <c r="B111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="24"/>
-      <c r="B113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="21"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="24"/>
-      <c r="B116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="24"/>
-      <c r="B117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="24"/>
-      <c r="B118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="24"/>
-      <c r="B119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="24"/>
-      <c r="B120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="24"/>
-      <c r="B121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="24"/>
-      <c r="B122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
-      <c r="B123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="24"/>
-      <c r="B124" s="21"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
-      <c r="B125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="24"/>
-      <c r="B126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="24"/>
-      <c r="B128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="24"/>
-      <c r="B129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="24"/>
-      <c r="B130" s="21"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="24"/>
-      <c r="B131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="24"/>
-      <c r="B132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="24"/>
-      <c r="B133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="24"/>
-      <c r="B134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="24"/>
-      <c r="B135" s="21"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="24"/>
-      <c r="B136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="24"/>
-      <c r="B137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="24"/>
-      <c r="B138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="24"/>
-      <c r="B139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="24"/>
-      <c r="B140" s="21"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="24"/>
-      <c r="B141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="24"/>
-      <c r="B142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="24"/>
-      <c r="B143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="24"/>
-      <c r="B144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="24"/>
-      <c r="B145" s="21"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="24"/>
-      <c r="B146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="24"/>
-      <c r="B147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="24"/>
-      <c r="B148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="24"/>
-      <c r="B149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="24"/>
-      <c r="B150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="24"/>
-      <c r="B151" s="21"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="24"/>
-      <c r="B152" s="21"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="24"/>
-      <c r="B153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="24"/>
-      <c r="B154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="24"/>
-      <c r="B155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="24"/>
-      <c r="B156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="24"/>
-      <c r="B157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="24"/>
-      <c r="B158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="24"/>
-      <c r="B159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="24"/>
-      <c r="B160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="24"/>
-      <c r="B161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="24"/>
-      <c r="B162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="24"/>
-      <c r="B163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="24"/>
-      <c r="B164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="24"/>
-      <c r="B165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="24"/>
-      <c r="B166" s="21"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="24"/>
-      <c r="B167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="24"/>
-      <c r="B168" s="21"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="24"/>
-      <c r="B169" s="21"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="24"/>
-      <c r="B170" s="21"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="24"/>
-      <c r="B171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="24"/>
-      <c r="B172" s="21"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="24"/>
-      <c r="B173" s="21"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="24"/>
-      <c r="B174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="24"/>
-      <c r="B175" s="21"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="24"/>
-      <c r="B176" s="21"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="21"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="24"/>
-      <c r="B177" s="21"/>
-      <c r="D177" s="21"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="24"/>
-      <c r="B178" s="21"/>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="24"/>
-      <c r="B179" s="21"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="24"/>
-      <c r="B180" s="21"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="24"/>
-      <c r="B181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="24"/>
-      <c r="B182" s="21"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="24"/>
-      <c r="B183" s="21"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="21"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="24"/>
-      <c r="B184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="24"/>
-      <c r="B185" s="21"/>
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="24"/>
-      <c r="B186" s="21"/>
-      <c r="D186" s="21"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="24"/>
-      <c r="B187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="24"/>
-      <c r="B188" s="21"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="21"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="24"/>
-      <c r="B189" s="21"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="24"/>
-      <c r="B190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="24"/>
-      <c r="B191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="24"/>
-      <c r="B192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="24"/>
-      <c r="B193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="24"/>
-      <c r="B194" s="21"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="24"/>
-      <c r="B195" s="21"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="21"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="12"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="26"/>
-      <c r="B196" s="25"/>
-      <c r="E196" s="25"/>
-      <c r="F196" s="25"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="26"/>
-      <c r="B197" s="25"/>
+      <c r="A197" s="17"/>
+      <c r="B197" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10103,388 +11173,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="191.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="41"/>
+    <col min="5" max="5" width="76.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="77" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="70" t="s">
+    <row r="4" spans="1:4" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
+      <c r="B4" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="42" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="70" t="s">
+    <row r="5" spans="1:4" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="70" t="s">
+    <row r="6" spans="1:4" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71" t="s">
+    <row r="7" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="87" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="52"/>
-    </row>
-    <row r="9" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="71" t="s">
+    <row r="8" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+    </row>
+    <row r="9" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="1:4" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="70" t="s">
+    <row r="10" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+    </row>
+    <row r="11" spans="1:4" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="42" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="42" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="42" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="53">
+      <c r="A14" s="43">
         <v>0</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="34">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="23" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57">
+      <c r="A16" s="47">
         <v>3</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+      <c r="A17" s="48">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+      <c r="A18" s="48">
         <v>5</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="48">
         <v>6</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="A20" s="48">
         <v>7</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="50">
         <v>3</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="58">
+      <c r="A21" s="48">
         <v>8</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="58">
+      <c r="A22" s="48">
         <v>9</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="49" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A23" s="58">
+      <c r="A23" s="48">
         <v>10</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="50" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="58">
+      <c r="A24" s="48">
         <v>11</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="53" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="58">
+      <c r="A25" s="48">
         <v>12</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="58">
+      <c r="A26" s="48">
         <v>13</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="58">
+      <c r="A27" s="48">
         <v>14</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="58">
+      <c r="A28" s="48">
         <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="58">
+      <c r="A29" s="48">
         <v>16</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="58">
+      <c r="A30" s="48">
         <v>17</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="58">
+      <c r="A31" s="48">
         <v>18</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="58">
+      <c r="A32" s="48">
         <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="23" t="s">
         <v>216</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="58">
+      <c r="A33" s="48">
         <v>20</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -10494,7 +11564,7 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="58">
+      <c r="A34" s="48">
         <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -10504,7 +11574,7 @@
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="58">
+      <c r="A35" s="48">
         <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -10514,200 +11584,200 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="58">
+      <c r="A36" s="48">
         <v>23</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="37" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="58">
+      <c r="A37" s="48">
         <v>24</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="55" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="58">
+      <c r="A38" s="48">
         <v>25</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="58">
+      <c r="A39" s="48">
         <v>26</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="49" t="s">
         <v>227</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="58">
+      <c r="A40" s="48">
         <v>27</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="50" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="58">
+      <c r="A41" s="48">
         <v>28</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="58">
+      <c r="A42" s="48">
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="58">
+    <row r="43" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="48">
         <v>30</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D43" s="44"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="58">
+      <c r="A44" s="48">
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="31" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="58">
+      <c r="A45" s="48">
         <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="23" t="s">
         <v>242</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="58">
+      <c r="A46" s="48">
         <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="31" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="58">
+      <c r="A47" s="48">
         <v>34</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="23" t="s">
         <v>248</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="58">
+      <c r="A48" s="48">
         <v>35</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="23" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58">
+      <c r="A49" s="48">
         <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="23" t="s">
         <v>253</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58">
+      <c r="A50" s="48">
         <v>37</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D50" s="59"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="58">
+      <c r="A51" s="48">
         <v>38</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -10717,31 +11787,31 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58">
+      <c r="A52" s="48">
         <v>39</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="D52" s="59"/>
+      <c r="D52" s="49"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="58">
+      <c r="A53" s="48">
         <v>40</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="40" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="31" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="58">
+      <c r="A54" s="48">
         <v>41</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -10753,7 +11823,7 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="58">
+      <c r="A55" s="48">
         <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -10765,181 +11835,181 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="58">
+      <c r="A56" s="48">
         <v>43</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="58">
+      <c r="A57" s="48">
         <v>44</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="23" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="58">
+      <c r="A58" s="48">
         <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="23" t="s">
         <v>269</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="58">
+      <c r="A59" s="48">
         <v>46</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="23" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="58">
+      <c r="A60" s="48">
         <v>47</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="23" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="58">
+      <c r="A61" s="48">
         <v>48</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="58">
+      <c r="A62" s="48">
         <v>49</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="58">
+      <c r="A63" s="48">
         <v>50</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="64" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="58">
+      <c r="A64" s="48">
         <v>51</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="D64" s="67" t="s">
+      <c r="D64" s="57" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="58">
+      <c r="A65" s="48">
         <v>52</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="44"/>
+      <c r="D65" s="35"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="58">
+      <c r="A66" s="48">
         <v>53</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="58">
+      <c r="A67" s="48">
         <v>54</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="55"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="58">
+      <c r="A68" s="48">
         <v>55</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="65"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="55"/>
     </row>
     <row r="69" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="58">
+      <c r="A69" s="48">
         <v>56</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="55" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="58">
+      <c r="A70" s="48">
         <v>57</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="58">
+      <c r="A71" s="48">
         <v>58</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -10949,7 +12019,7 @@
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="58">
+      <c r="A72" s="48">
         <v>59</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -10959,7 +12029,7 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="58">
+      <c r="A73" s="48">
         <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -10969,33 +12039,33 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="58">
+      <c r="A74" s="48">
         <v>61</v>
       </c>
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="23" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="58">
+      <c r="A75" s="48">
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="23" t="s">
         <v>298</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="58">
+      <c r="A76" s="48">
         <v>63</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -11005,7 +12075,7 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="58">
+      <c r="A77" s="48">
         <v>64</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -11015,7 +12085,7 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="58">
+      <c r="A78" s="48">
         <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -11025,42 +12095,42 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="58">
+      <c r="A79" s="48">
         <v>66</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="58">
+      <c r="A80" s="48">
         <v>67</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
     </row>
     <row r="81" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A81" s="58">
+      <c r="A81" s="48">
         <v>68</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E81" s="47"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="58">
+      <c r="A82" s="48">
         <v>69</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -11068,177 +12138,177 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="48"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A83" s="58">
+      <c r="A83" s="48">
         <v>70</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E83" s="48"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="58">
+      <c r="A84" s="48">
         <v>71</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="23" t="s">
         <v>312</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="48"/>
-    </row>
-    <row r="85" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A85" s="58">
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="48">
         <v>72</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="23" t="s">
         <v>314</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="48"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="58">
+      <c r="A86" s="48">
         <v>73</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="23" t="s">
         <v>316</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="48"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="58">
+      <c r="A87" s="48">
         <v>74</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="23" t="s">
         <v>318</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="48"/>
+      <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="58">
+      <c r="A88" s="48">
         <v>75</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="48"/>
+      <c r="E88" s="39"/>
     </row>
     <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="58">
+      <c r="A89" s="48">
         <v>76</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="48"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="39"/>
     </row>
     <row r="90" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="58">
+      <c r="A90" s="48">
         <v>77</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="23" t="s">
         <v>323</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="48"/>
+      <c r="E90" s="39"/>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="58">
+      <c r="A91" s="48">
         <v>78</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="48"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="58">
+      <c r="A92" s="48">
         <v>79</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="48"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="58">
+      <c r="A93" s="48">
         <v>80</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="23" t="s">
         <v>326</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="48"/>
+      <c r="E93" s="39"/>
     </row>
     <row r="94" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="58">
+      <c r="A94" s="48">
         <v>81</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E94" s="48"/>
+      <c r="E94" s="39"/>
     </row>
     <row r="95" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A95" s="58">
+      <c r="A95" s="48">
         <v>82</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E95" s="48"/>
+      <c r="E95" s="39"/>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="58">
+      <c r="A96" s="48">
         <v>83</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -11246,10 +12316,10 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="48"/>
+      <c r="E96" s="39"/>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="58">
+      <c r="A97" s="48">
         <v>84</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -11257,157 +12327,157 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="48"/>
+      <c r="E97" s="39"/>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="58">
+      <c r="A98" s="48">
         <v>85</v>
       </c>
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="48"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="39"/>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="58">
+      <c r="A99" s="48">
         <v>86</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="48"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="39"/>
     </row>
     <row r="100" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A100" s="58">
+      <c r="A100" s="48">
         <v>87</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="E100" s="48"/>
+      <c r="E100" s="39"/>
     </row>
     <row r="101" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="58">
+      <c r="A101" s="48">
         <v>88</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="23" t="s">
         <v>341</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E101" s="48"/>
+      <c r="E101" s="39"/>
     </row>
     <row r="102" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A102" s="58">
+      <c r="A102" s="48">
         <v>89</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="23" t="s">
         <v>344</v>
       </c>
       <c r="D102" s="4"/>
-      <c r="E102" s="48" t="s">
+      <c r="E102" s="39" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="58">
+      <c r="A103" s="48">
         <v>90</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="23" t="s">
         <v>347</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="58">
+      <c r="A104" s="48">
         <v>91</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="23" t="s">
         <v>349</v>
       </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="58">
+      <c r="A105" s="48">
         <v>92</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C105" s="40" t="s">
+      <c r="C105" s="31" t="s">
         <v>351</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="58">
+      <c r="A106" s="48">
         <v>93</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="D106" s="40" t="s">
+      <c r="D106" s="31" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="58">
+      <c r="A107" s="48">
         <v>94</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="23" t="s">
         <v>356</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="58">
+      <c r="A108" s="48">
         <v>95</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="40" t="s">
+      <c r="D108" s="31" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="58">
+      <c r="A109" s="48">
         <v>96</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="23" t="s">
         <v>360</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -11415,13 +12485,13 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="58">
+      <c r="A110" s="48">
         <v>97</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="23" t="s">
         <v>363</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -11429,7 +12499,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="58">
+      <c r="A111" s="48">
         <v>98</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -11441,57 +12511,57 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="58">
+      <c r="A112" s="48">
         <v>99</v>
       </c>
-      <c r="B112" s="59" t="s">
+      <c r="B112" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="C112" s="60" t="s">
+      <c r="C112" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="D112" s="59"/>
+      <c r="D112" s="49"/>
     </row>
     <row r="113" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="58">
+      <c r="A113" s="48">
         <v>100</v>
       </c>
-      <c r="B113" s="60" t="s">
+      <c r="B113" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="C113" s="59"/>
-      <c r="D113" s="59"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
     </row>
     <row r="114" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="58">
+      <c r="A114" s="48">
         <v>101</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="D114" s="40" t="s">
+      <c r="D114" s="31" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="58">
+      <c r="A115" s="48">
         <v>102</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="40" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="58">
+      <c r="A116" s="48">
         <v>103</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -11501,48 +12571,48 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="58">
+      <c r="A117" s="48">
         <v>104</v>
       </c>
-      <c r="B117" s="60" t="s">
+      <c r="B117" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="C117" s="59" t="s">
+      <c r="C117" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="65" t="s">
+      <c r="D117" s="55" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="58">
+      <c r="A118" s="48">
         <v>105</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C118" s="59"/>
-      <c r="D118" s="59"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
     </row>
     <row r="119" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A119" s="58">
+      <c r="A119" s="48">
         <v>106</v>
       </c>
-      <c r="B119" s="59" t="s">
+      <c r="B119" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="C119" s="60" t="s">
+      <c r="C119" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="D119" s="67" t="s">
+      <c r="D119" s="57" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="58">
+      <c r="A120" s="48">
         <v>107</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="23" t="s">
         <v>383</v>
       </c>
       <c r="C120" s="4"/>
@@ -11676,16 +12746,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C105" r:id="rId1"/>
@@ -11711,8 +12781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11724,16 +12794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="62" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11741,10 +12811,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="64" t="s">
         <v>385</v>
       </c>
       <c r="D2" s="1"/>
@@ -11753,10 +12823,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="64" t="s">
         <v>387</v>
       </c>
       <c r="D3" s="1"/>
@@ -11765,10 +12835,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="64" t="s">
         <v>389</v>
       </c>
       <c r="D4" s="1"/>
@@ -11780,7 +12850,7 @@
       <c r="B5" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="64" t="s">
         <v>391</v>
       </c>
       <c r="D5" s="1"/>
@@ -11789,10 +12859,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="64" t="s">
         <v>393</v>
       </c>
       <c r="D6" s="1"/>
@@ -11801,10 +12871,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="64" t="s">
         <v>395</v>
       </c>
       <c r="D7" s="1"/>
@@ -11816,10 +12886,10 @@
       <c r="B8" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="66" t="s">
         <v>398</v>
       </c>
     </row>
@@ -11830,7 +12900,7 @@
       <c r="B9" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="64" t="s">
         <v>400</v>
       </c>
       <c r="D9" s="1"/>
@@ -11842,7 +12912,7 @@
       <c r="B10" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="64" t="s">
         <v>402</v>
       </c>
       <c r="D10" s="1"/>
@@ -11851,13 +12921,13 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="67" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="66" t="s">
         <v>405</v>
       </c>
     </row>
@@ -11868,7 +12938,7 @@
       <c r="B12" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="64" t="s">
         <v>407</v>
       </c>
       <c r="D12" s="1"/>
@@ -11880,7 +12950,7 @@
       <c r="B13" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D13" s="1"/>
@@ -11892,7 +12962,7 @@
       <c r="B14" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="64" t="s">
         <v>411</v>
       </c>
       <c r="D14" s="1"/>
@@ -11901,10 +12971,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="64" t="s">
         <v>413</v>
       </c>
       <c r="D15" s="1"/>
@@ -11923,7 +12993,9 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="74" t="s">
+        <v>567</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
@@ -12171,6 +13243,7 @@
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12178,12 +13251,42 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" location="performance-and-edge-case-related-terminology"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12204,14 +13307,568 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="130.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+    </row>
+    <row r="3" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="63" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="63" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="63" customFormat="1" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>600</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="63" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="63" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="63" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="63" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>608</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" s="63" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" s="63" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>612</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" s="63" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="63" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>616</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" s="63" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="63" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>620</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="63" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="63" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="63" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>625</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="63" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>627</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="63" customFormat="1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>629</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="63" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="63" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="63" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>635</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="63" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>637</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="90" t="s">
+        <v>594</v>
+      </c>
+      <c r="C54" s="91"/>
+    </row>
+    <row r="55" spans="1:4" s="63" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" s="63" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" s="63" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" s="63" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" s="63" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" s="63" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" s="63" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" s="63" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" s="63" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" s="63" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B65" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="C65" s="88" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" s="63" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="B66" s="63" t="s">
+        <v>581</v>
+      </c>
+      <c r="C66" s="88" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>